--- a/artfynd/A 39095-2025 artfynd.xlsx
+++ b/artfynd/A 39095-2025 artfynd.xlsx
@@ -1717,7 +1717,7 @@
         <v>128439553</v>
       </c>
       <c r="B12" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
